--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2176.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2176.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.140232654344072</v>
+        <v>1.272549271583557</v>
       </c>
       <c r="B1">
-        <v>1.906035340446069</v>
+        <v>2.399449586868286</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.02892981727887</v>
+        <v>1.378092527389526</v>
       </c>
       <c r="E1">
-        <v>0.8513201636039919</v>
+        <v>0.861849308013916</v>
       </c>
     </row>
   </sheetData>
